--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F52BC8-7F19-4D8D-8BBD-CC52C52B3726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F08168-312F-4FA8-A3FD-260F7E35B6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4200,19 +4200,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9928663591225577E-2</v>
+        <v>2.920521620128836E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4603932032050479E-2</v>
+        <v>2.4009196140936443E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3318652000525453E-2</v>
+        <v>2.2754984402230807E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.640262135470032E-2</v>
+        <v>1.6006130760624297E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>17.48</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>68565.553687239997</v>
+        <v>70291.460072960006</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5028,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0698426167170207</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.980576789760001</v>
+        <v>17.401205552564317</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9928663591225577E-2</v>
+        <v>2.920521620128836E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5273,20 +5273,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.5723648774406804</v>
+        <v>9.5119096190755172</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.687379939227004</v>
+        <v>17.575673465673241</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.261605738165507</v>
+        <v>11.190481904794726</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.380330381936526</v>
+        <v>15.283194317976733</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12209,17 +12209,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8890814627866078E-2</v>
+        <v>5.7467282768384816E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8890814627865988E-2</v>
+        <v>5.7467282768384725E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8890814627865988E-2</v>
+        <v>5.7467282768384725E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12260,17 +12260,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9928663591225577E-2</v>
+        <v>2.920521620128836E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9928663591225577E-2</v>
+        <v>2.920521620128836E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9928663591225577E-2</v>
+        <v>2.920521620128836E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12330,14 +12330,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.651111644250427</v>
+        <v>22.508056210797555</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.651111644250427</v>
+        <v>22.508056210797555</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12358,14 +12358,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.020954803445379</v>
+        <v>9.9897115759943471</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.020954803445379</v>
+        <v>9.9897115759943471</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12408,21 +12408,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>44173811.947638273</v>
+        <v>43894827.679021202</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.261605738165507</v>
+        <v>11.190481904794726</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.261605738165507</v>
+        <v>11.190481904794726</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.380330381936526</v>
+        <v>15.283194317976733</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12471,27 +12471,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>44173811.947638273</v>
+        <v>43894827.679021202</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.5723648774406804</v>
+        <v>9.5119096190755172</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.261605738165507</v>
+        <v>11.190481904794726</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.261605738165507</v>
+        <v>11.190481904794726</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.261605738165507</v>
+        <v>11.190481904794728</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.380330381936526</v>
+        <v>15.283194317976733</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12532,27 +12532,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19542695.29793876</v>
+        <v>19481765.288156677</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2348577546863861</v>
+        <v>4.2216543597357434</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9821855937486896</v>
+        <v>4.9666521879244039</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.9821855937486896</v>
+        <v>4.9666521879244039</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9821855937486896</v>
+        <v>4.9666521879244039</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.8043281071622683</v>
+        <v>6.7831136445812747</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12593,27 +12593,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>31858253.622788519</v>
+        <v>31688296.483588938</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.9036113160635333</v>
+        <v>6.8667819894056308</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.1218956659570978</v>
+        <v>8.0785670463595647</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.1218956659570978</v>
+        <v>8.0785670463595647</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.1218956659570978</v>
+        <v>8.0785670463595665</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.092329244549397</v>
+        <v>11.033153981279003</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F08168-312F-4FA8-A3FD-260F7E35B6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{638BC6FB-1564-4AF2-A18B-FE900CCBCE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4200,19 +4200,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.920521620128836E-2</v>
+        <v>2.8721656731271587E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4009196140936443E-2</v>
+        <v>2.3611668723867441E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2754984402230807E-2</v>
+        <v>2.2378223342769885E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6006130760624297E-2</v>
+        <v>1.5741112482578295E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>17.920000000000002</v>
+        <v>18.22</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>70291.460072960006</v>
+        <v>71468.214426859995</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5028,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5074,10 +5074,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5124,7 +5124,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.401205552564317</v>
+        <v>17.694173253326834</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.920521620128836E-2</v>
+        <v>2.8721656731271587E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5273,20 +5273,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.5119096190755172</v>
+        <v>8.6465305112052704</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.575673465673241</v>
+        <v>15.558260808551218</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.190481904794726</v>
+        <v>10.172388836712082</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.283194317976733</v>
+        <v>13.528922442218452</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12209,17 +12209,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7467282768384816E-2</v>
+        <v>5.6515779837974796E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7467282768384725E-2</v>
+        <v>5.6515779837974706E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7467282768384725E-2</v>
+        <v>5.6515779837974706E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12260,17 +12260,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.920521620128836E-2</v>
+        <v>2.8721656731271587E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.920521620128836E-2</v>
+        <v>2.8721656731271587E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.920521620128836E-2</v>
+        <v>2.8721656731271587E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12330,14 +12330,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.508056210797555</v>
+        <v>20.460307400765604</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.508056210797555</v>
+        <v>20.460307400765604</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12358,14 +12358,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9897115759943471</v>
+        <v>9.1004190543981665</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9897115759943471</v>
+        <v>9.1004190543981665</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12408,21 +12408,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>43894827.679021202</v>
+        <v>39901342.84388233</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.190481904794726</v>
+        <v>10.172388836712082</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.190481904794726</v>
+        <v>10.172388836712082</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.283194317976733</v>
+        <v>13.528922442218452</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12471,27 +12471,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>43894827.679021202</v>
+        <v>39901342.84388233</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.5119096190755172</v>
+        <v>8.6465305112052704</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.190481904794726</v>
+        <v>10.172388836712082</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.190481904794726</v>
+        <v>10.172388836712082</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.190481904794728</v>
+        <v>10.172388836712082</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.283194317976733</v>
+        <v>13.528922442218452</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12532,27 +12532,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19481765.288156677</v>
+        <v>17747482.166321371</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2216543597357434</v>
+        <v>3.8458391400152259</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9666521879244039</v>
+        <v>4.5245166353120307</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.9666521879244039</v>
+        <v>4.5245166353120307</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9666521879244039</v>
+        <v>4.5245166353120307</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.7831136445812747</v>
+        <v>6.0174493553324027</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12593,27 +12593,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>31688296.483588938</v>
+        <v>28824412.505101848</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8667819894056308</v>
+        <v>6.2461848256102481</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0785670463595647</v>
+        <v>7.3484527360120566</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0785670463595647</v>
+        <v>7.3484527360120566</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0785670463595665</v>
+        <v>7.3484527360120566</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.033153981279003</v>
+        <v>9.7731858987754272</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{638BC6FB-1564-4AF2-A18B-FE900CCBCE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1404EE28-FE00-4C36-BD22-C8DCEBBFE311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4200,19 +4211,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8721656731271587E-2</v>
+        <v>2.9774224357615842E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3611668723867441E-2</v>
+        <v>2.4476969717303825E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2378223342769885E-2</v>
+        <v>2.3198322045504371E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.5741112482578295E-2</v>
+        <v>1.6317979811535883E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4938,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>18.22</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4979,7 +4990,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>71468.214426859995</v>
+        <v>68879.354848279996</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5028,7 +5039,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5211,7 +5222,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.694173253326834</v>
+        <v>17.068655230835866</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5254,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8721656731271587E-2</v>
+        <v>2.9774224357615842E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5273,20 +5284,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.6465305112052704</v>
+        <v>8.7237190718341076</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.558260808551218</v>
+        <v>15.697151171124254</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.172388836712082</v>
+        <v>10.263198908040126</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.528922442218452</v>
+        <v>13.649696670542831</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12209,17 +12220,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6515779837974796E-2</v>
+        <v>5.8586923602125557E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6515779837974706E-2</v>
+        <v>5.8586923602125467E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6515779837974706E-2</v>
+        <v>5.8586923602125467E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12260,17 +12271,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8721656731271587E-2</v>
+        <v>2.9774224357615842E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8721656731271587E-2</v>
+        <v>2.9774224357615842E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8721656731271587E-2</v>
+        <v>2.9774224357615842E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12330,14 +12341,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.460307400765604</v>
+        <v>20.642958890428652</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.460307400765604</v>
+        <v>20.642958890428652</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12358,14 +12369,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1004190543981665</v>
+        <v>9.1387999552874444</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1004190543981665</v>
+        <v>9.1387999552874444</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12408,21 +12419,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>39901342.84388233</v>
+        <v>40257546.666593149</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.172388836712082</v>
+        <v>10.263198908040126</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.172388836712082</v>
+        <v>10.263198908040126</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.528922442218452</v>
+        <v>13.649696670542831</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12471,27 +12482,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>39901342.84388233</v>
+        <v>40257546.666593149</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.6465305112052704</v>
+        <v>8.7237190718341076</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.172388836712082</v>
+        <v>10.263198908040126</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.172388836712082</v>
+        <v>10.263198908040126</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.172388836712082</v>
+        <v>10.263198908040126</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.528922442218452</v>
+        <v>13.649696670542831</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12532,27 +12543,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17747482.166321371</v>
+        <v>17822331.94521486</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8458391400152259</v>
+        <v>3.8620589173668738</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5245166353120307</v>
+        <v>4.5435987263139692</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5245166353120307</v>
+        <v>4.5435987263139692</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5245166353120307</v>
+        <v>4.5435987263139692</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0174493553324027</v>
+        <v>6.042827870973575</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12593,27 +12604,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>28824412.505101848</v>
+        <v>29039939.305904001</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2461848256102481</v>
+        <v>6.2928889946004904</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.3484527360120566</v>
+        <v>7.4033988171770471</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.3484527360120566</v>
+        <v>7.4033988171770471</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.3484527360120566</v>
+        <v>7.4033988171770471</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.7731858987754272</v>
+        <v>9.8462622707582028</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1404EE28-FE00-4C36-BD22-C8DCEBBFE311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82323871-6B53-4C9C-B9B7-A38F15B3C760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,27 +946,59 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>2319.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙牛乳業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0002</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CNY</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙牛乳業</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1020,7 @@
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
     <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1202,13 +1213,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1554,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2196,7 +2200,14 @@
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3613,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="271" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="191" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -3664,7 +3675,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>270</v>
@@ -3673,15 +3684,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>3922514513</v>
@@ -3689,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3713,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3721,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3738,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3867,7 +3878,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>61983946</v>
@@ -3893,7 +3904,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>29934742</v>
@@ -3919,7 +3930,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3935,7 +3946,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>1569281</v>
@@ -3955,7 +3966,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>77778</v>
@@ -3975,7 +3986,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3991,7 +4002,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -4007,7 +4018,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4039,7 +4050,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4055,7 +4066,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4087,7 +4098,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4135,7 +4146,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4151,7 +4162,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4167,7 +4178,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4183,7 +4194,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.48899999999999999</v>
@@ -4207,23 +4218,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9774224357615842E-2</v>
+        <v>2.9742206207585692E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4476969717303825E-2</v>
+        <v>2.4450648047953882E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3198322045504371E-2</v>
+        <v>2.317337538873241E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6317979811535883E-2</v>
+        <v>1.6300432031969257E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4256,21 +4267,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4280,7 +4291,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4290,7 +4301,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4301,7 +4312,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4311,7 +4322,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4321,7 +4332,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4332,7 +4343,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4342,7 +4353,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4353,7 +4364,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4361,24 +4372,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4389,7 +4400,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4400,7 +4411,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4411,7 +4422,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4422,7 +4433,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4433,7 +4444,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4444,7 +4455,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4454,31 +4465,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4486,12 +4497,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4502,7 +4513,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4513,7 +4524,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4523,7 +4534,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4534,7 +4545,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4544,25 +4555,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4574,55 +4585,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4630,10 +4641,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4641,18 +4652,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="272">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="272"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4661,20 +4672,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="273"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4692,7 +4703,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4713,7 +4724,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4734,7 +4745,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4752,7 +4763,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4773,7 +4784,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4791,7 +4802,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4809,7 +4820,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4896,7 +4907,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4937,62 +4948,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="278" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>17.559999999999999</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="280" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
-      <c r="D4" s="281"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="284">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>3922514513</v>
       </c>
-      <c r="H4" s="284"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="282">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="283"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="276">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>68879.354848279996</v>
-      </c>
-      <c r="H5" s="276"/>
+        <v>68957.805138539989</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5015,16 +5026,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="277" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="277"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5039,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5049,40 +5060,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5095,29 +5106,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5127,12 +5138,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5142,29 +5153,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.6284871859996084</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5172,7 +5183,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5183,26 +5194,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.0515083234117328E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5211,30 +5222,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.068655230835866</v>
+        <v>17.087030019853852</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5243,18 +5254,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>5.10257737259011E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9774224357615842E-2</v>
+        <v>2.9742206207585692E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5264,62 +5275,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="274" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="274"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7237190718341076</v>
+        <v>8.7216672716666857</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.697151171124254</v>
+        <v>15.693459234561907</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.263198908040126</v>
-      </c>
-      <c r="G29" s="275">
+        <v>10.260785025490218</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.649696670542831</v>
-      </c>
-      <c r="H29" s="275"/>
+        <v>13.646486290923399</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5329,25 +5340,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5357,7 +5368,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5367,14 +5378,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5384,7 +5395,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5399,14 +5410,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6359,12 +6370,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C42" sqref="C42:C44"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6391,16 +6402,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6418,7 +6429,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6451,7 +6462,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6462,7 +6473,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6614,7 +6625,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6665,7 +6676,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6716,7 +6727,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6767,7 +6778,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6818,7 +6829,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6869,7 +6880,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6920,7 +6931,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6971,7 +6982,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7022,7 +7033,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7073,7 +7084,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7124,7 +7135,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7175,7 +7186,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7226,7 +7237,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7277,7 +7288,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7328,7 +7339,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7379,7 +7390,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7430,7 +7441,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7481,7 +7492,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7532,7 +7543,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7685,7 +7696,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7736,7 +7747,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7838,7 +7849,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8042,7 +8053,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8093,7 +8104,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8144,7 +8155,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8195,7 +8206,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8246,7 +8257,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8297,7 +8308,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8315,7 +8326,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8366,7 +8377,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8417,7 +8428,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8468,7 +8479,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8519,7 +8530,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8570,7 +8581,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8621,7 +8632,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8672,7 +8683,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8689,50 +8700,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8741,10 +8752,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8792,167 +8803,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8960,112 +8972,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.31183748883229523</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.24367936980114274</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="F56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="G56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="H56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.31183748883229523</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.24367936980114274</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9628,7 +9830,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10311,6 +10515,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10350,8 +10555,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10369,7 +10574,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10384,7 +10589,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10398,7 +10603,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10408,7 +10613,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10426,10 +10631,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10438,12 +10643,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10453,7 +10659,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10463,8 +10669,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10476,7 +10683,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10494,7 +10701,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10513,32 +10720,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10555,7 +10762,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10566,7 +10773,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10583,7 +10790,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10594,7 +10801,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10611,7 +10818,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10622,7 +10829,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10639,7 +10846,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10650,7 +10857,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10667,7 +10874,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10677,7 +10884,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10699,7 +10906,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10721,7 +10928,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10742,7 +10949,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10767,7 +10974,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10794,7 +11001,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10815,7 +11022,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10832,7 +11039,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10844,13 +11051,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10872,7 +11079,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10892,7 +11099,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10901,7 +11108,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10921,7 +11128,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10934,7 +11141,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10954,7 +11161,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11000,7 +11207,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11009,7 +11216,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11025,7 +11232,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11035,7 +11242,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11052,7 +11259,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11062,7 +11269,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11079,7 +11286,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11089,7 +11296,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11109,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11119,7 +11326,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11136,7 +11343,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11146,7 +11353,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11172,7 +11379,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11199,7 +11406,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11226,7 +11433,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11247,7 +11454,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11268,7 +11475,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11289,7 +11496,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11310,7 +11517,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11327,7 +11534,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11345,7 +11552,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11364,7 +11571,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11383,7 +11590,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11400,7 +11607,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11413,7 +11620,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11430,7 +11637,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11443,7 +11650,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11460,7 +11667,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11487,7 +11694,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11503,14 +11710,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11527,7 +11734,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11557,7 +11764,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11568,14 +11775,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="285">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11583,30 +11790,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="284">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="283"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="284">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="283"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11623,11 +11830,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11637,7 +11844,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11658,7 +11865,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11679,7 +11886,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11700,7 +11907,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11715,7 +11922,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11746,11 +11953,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11760,7 +11967,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11781,7 +11988,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11796,7 +12003,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11818,21 +12025,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="272">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="272"/>
-      <c r="E72" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="286"/>
-      <c r="H72" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="286"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11842,23 +12049,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="273"/>
-      <c r="E73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="273"/>
-      <c r="H73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="273"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11879,7 +12086,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11909,7 +12116,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11930,7 +12137,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11960,7 +12167,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11990,7 +12197,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12021,7 +12228,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12048,12 +12255,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12083,7 +12290,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12113,7 +12320,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12143,7 +12350,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12164,7 +12371,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12195,7 +12402,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12216,28 +12423,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8586923602125557E-2</v>
+        <v>5.8523921292236054E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8586923602125467E-2</v>
+        <v>5.8523921292235971E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8586923602125467E-2</v>
+        <v>5.8523921292235971E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12267,21 +12474,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9774224357615842E-2</v>
+        <v>2.9742206207585692E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9774224357615842E-2</v>
+        <v>2.9742206207585692E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9774224357615842E-2</v>
+        <v>2.9742206207585692E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12298,29 +12505,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="286"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="286"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12337,24 +12544,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.642958890428652</v>
+        <v>20.638103710412114</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.642958890428652</v>
+        <v>20.638103710412114</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12365,18 +12572,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1387999552874444</v>
+        <v>9.1379491389652365</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1387999552874444</v>
+        <v>9.1379491389652365</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12395,51 +12602,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40257546.666593149</v>
+        <v>40248078.177258454</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.263198908040126</v>
+        <v>10.260785025490218</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.263198908040126</v>
+        <v>10.260785025490218</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.649696670542831</v>
+        <v>13.646486290923399</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12457,7 +12664,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12478,31 +12685,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>40257546.666593149</v>
+        <v>40248078.177258454</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7237190718341076</v>
+        <v>8.7216672716666857</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.263198908040126</v>
+        <v>10.260785025490218</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.263198908040126</v>
+        <v>10.260785025490218</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.263198908040126</v>
+        <v>10.260785025490218</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.649696670542831</v>
+        <v>13.646486290923399</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12512,58 +12719,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17822331.94521486</v>
+        <v>17820672.697721425</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8620589173668738</v>
+        <v>3.8616993621976716</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5435987263139692</v>
+        <v>4.5431757202325551</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5435987263139692</v>
+        <v>4.5431757202325551</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5435987263139692</v>
+        <v>4.5431757202325551</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.042827870973575</v>
+        <v>6.0422652876354919</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12573,58 +12780,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29039939.305904001</v>
+        <v>29034375.437489942</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2928889946004904</v>
+        <v>6.2916833169321791</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.4033988171770471</v>
+        <v>7.4019803728613862</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.4033988171770471</v>
+        <v>7.4019803728613862</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.4033988171770471</v>
+        <v>7.4019803728613862</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8462622707582028</v>
+        <v>9.8443757892794448</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12633,7 +12840,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12642,6 +12849,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82323871-6B53-4C9C-B9B7-A38F15B3C760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EF1D58-9AB8-47AE-8B2F-39D07CE0E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.6284871859996084</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30352378280666881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0515083234117328E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5911749144409931E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.10257737259011E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>3922514513</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3946,7 +3109,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>1569281</v>
@@ -4066,7 +3229,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4162,7 +3325,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4194,7 +3357,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.48899999999999999</v>
@@ -4218,23 +3381,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9742206207585692E-2</v>
+        <v>3.0047073391662252E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4450648047953882E-2</v>
+        <v>2.470127505817633E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.317337538873241E-2</v>
+        <v>2.3410909943196969E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6300432031969257E-2</v>
+        <v>1.646751670545089E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4267,13 +3430,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4332,7 +3495,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4343,7 +3506,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4444,7 +3607,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4455,7 +3618,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4615,7 +3778,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4633,7 +3796,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4641,10 +3804,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4654,16 +3817,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4672,10 +3835,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4724,7 +3887,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4745,7 +3908,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4763,7 +3926,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4802,7 +3965,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4820,7 +3983,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4906,8 +4069,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4948,62 +4111,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>17.579999999999998</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>3922514513</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>68957.805138539989</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>68251.752526199998</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5026,16 +4189,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5050,7 +4213,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5060,40 +4223,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5106,29 +4269,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5138,12 +4301,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5151,9 +4314,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5161,59 +4324,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.6284871859996084</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.30352378280666881</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.0515083234117328E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>6.69375228703111E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5222,30 +4385,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.087030019853852</v>
+        <v>16.913659566815653</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5254,18 +4417,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>5.10257737259011E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9742206207585692E-2</v>
+        <v>3.0047073391662252E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5275,62 +4438,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7216672716666857</v>
+        <v>8.7455909893072281</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.693459234561907</v>
+        <v>15.736506724891044</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.260785025490218</v>
-      </c>
-      <c r="G29" s="278">
+        <v>10.288930575655563</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.646486290923399</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>13.683918891209604</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5340,7 +4503,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5351,14 +4514,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5368,7 +4531,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5378,14 +4541,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5395,7 +4558,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5410,14 +4573,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6361,7 +5524,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6375,7 +5537,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6402,16 +5564,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6429,7 +5591,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6462,7 +5624,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6829,7 +5991,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6880,7 +6042,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6931,7 +6093,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6982,7 +6144,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7084,7 +6246,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7237,7 +6399,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7747,7 +6909,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8257,7 +7419,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8308,7 +7470,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8377,7 +7539,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8581,7 +7743,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8683,7 +7845,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8701,14 +7863,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8752,7 +7914,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8803,7 +7965,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8854,7 +8016,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8905,7 +8067,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8922,7 +8084,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9122,7 +8284,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9172,7 +8334,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9222,7 +8384,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10726,7 +9888,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10884,7 +10046,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11296,7 +10458,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11764,7 +10926,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11778,11 +10940,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11793,11 +10955,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11809,11 +10971,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11830,7 +10992,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11907,7 +11069,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11953,7 +11115,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11988,7 +11150,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12027,19 +11189,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12049,18 +11211,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12137,7 +11299,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12167,7 +11329,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12197,7 +11359,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12260,7 +11422,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12290,7 +11452,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12371,7 +11533,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12402,7 +11564,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12423,28 +11585,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8523921292236054E-2</v>
+        <v>5.9123810317312203E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8523921292235971E-2</v>
+        <v>5.9123810317312113E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8523921292235971E-2</v>
+        <v>5.9123810317312113E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12474,21 +11636,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9742206207585692E-2</v>
+        <v>3.0047073391662252E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9742206207585692E-2</v>
+        <v>3.0047073391662252E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9742206207585692E-2</v>
+        <v>3.0047073391662252E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12510,24 +11672,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12544,24 +11706,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.638103710412114</v>
+        <v>20.694714465033321</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.638103710412114</v>
+        <v>20.694714465033321</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12572,18 +11734,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1379491389652365</v>
+        <v>9.1506281197287684</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1379491389652365</v>
+        <v>9.1506281197287684</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12602,14 +11764,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12626,21 +11788,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40248078.177258454</v>
+        <v>40358479.506258391</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.260785025490218</v>
+        <v>10.288930575655563</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.260785025490218</v>
+        <v>10.288930575655563</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.646486290923399</v>
+        <v>13.683918891209604</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12689,27 +11851,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>40248078.177258454</v>
+        <v>40358479.506258391</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7216672716666857</v>
+        <v>8.7455909893072281</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.260785025490218</v>
+        <v>10.288930575655563</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.260785025490218</v>
+        <v>10.288930575655563</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.260785025490218</v>
+        <v>10.288930575655563</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.646486290923399</v>
+        <v>13.683918891209604</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12719,21 +11881,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12746,31 +11908,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17820672.697721425</v>
+        <v>17845399.029953256</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8616993621976716</v>
+        <v>3.8670575023211562</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5431757202325551</v>
+        <v>4.5494794144954778</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5431757202325551</v>
+        <v>4.5494794144954778</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5431757202325551</v>
+        <v>4.5494794144954778</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0422652876354919</v>
+        <v>6.0506489811957254</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12780,21 +11942,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12807,31 +11969,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29034375.437489942</v>
+        <v>29101939.268105824</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2916833169321791</v>
+        <v>6.3063242458141922</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.4019803728613862</v>
+        <v>7.4192049950755203</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.4019803728613862</v>
+        <v>7.4192049950755203</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.4019803728613862</v>
+        <v>7.4192049950755203</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8443757892794448</v>
+        <v>9.8672839362026643</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12840,7 +12002,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EF1D58-9AB8-47AE-8B2F-39D07CE0E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E4A3DF-86FD-4C0D-83D4-42F5697E31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>3922514513</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3109,7 +3129,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>1569281</v>
@@ -3195,9 +3215,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3213,7 +3233,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3229,7 +3249,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3244,10 +3264,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3259,9 +3280,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3308,10 +3329,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3325,9 +3347,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3341,7 +3363,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3357,7 +3379,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.48899999999999999</v>
@@ -3381,23 +3403,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0047073391662252E-2</v>
+        <v>3.0045199517546032E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.470127505817633E-2</v>
+        <v>2.4699734572706557E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3410909943196969E-2</v>
+        <v>2.3409449930848748E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.646751670545089E-2</v>
+        <v>1.6466489715137703E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3430,13 +3452,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3454,7 +3476,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3464,7 +3486,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3495,7 +3517,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3506,7 +3528,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3540,7 +3562,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3607,7 +3629,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3618,7 +3640,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3665,7 +3687,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3778,7 +3800,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3796,7 +3818,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3804,10 +3826,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3815,7 +3837,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3823,10 +3845,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3848,7 +3870,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3887,7 +3909,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3908,7 +3930,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3926,7 +3948,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3965,7 +3987,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3983,7 +4005,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4006,28 +4028,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4069,8 +4096,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4111,7 +4138,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4126,12 +4153,12 @@
         <v>17.399999999999999</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4151,7 +4178,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4198,7 +4225,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4213,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4223,40 +4250,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4269,29 +4296,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4301,12 +4328,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4316,7 +4343,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4324,21 +4351,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4346,10 +4373,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4357,58 +4384,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>6.69375228703111E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.913659566815653</v>
+        <v>16.914714446443071</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4417,18 +4444,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0047073391662252E-2</v>
+        <v>3.0045199517546032E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4438,40 +4465,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7455909893072281</v>
+        <v>8.7448933499601704</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.736506724891044</v>
+        <v>15.735251417354943</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.288930575655563</v>
+        <v>10.288109823482554</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.683918891209604</v>
+        <v>13.682827319439083</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4479,21 +4506,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4503,25 +4530,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4531,7 +4558,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4541,14 +4568,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4558,7 +4585,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4573,14 +4600,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5480,27 +5507,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5532,12 +5559,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5564,16 +5591,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5591,7 +5618,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5624,7 +5651,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5635,7 +5662,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5991,7 +6018,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6042,7 +6069,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6093,7 +6120,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6144,7 +6171,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6246,7 +6273,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6399,7 +6426,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6654,7 +6681,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6705,7 +6732,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6759,15 +6786,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6807,50 +6834,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6858,50 +6885,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6909,101 +6936,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7011,101 +7038,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7113,50 +7140,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7164,50 +7191,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7215,50 +7242,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7266,272 +7293,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.6284871859996084</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.64695313556197931</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.63252357644343937</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.6234715757423005</v>
+      </c>
+      <c r="G40" s="156" t="e">
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="N40" s="87"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.30352378280666881</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.28932064884765663</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.30646158349403613</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.32450743240822588</v>
+      </c>
+      <c r="G41" s="153" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N40" s="87"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.6284871859996084</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.64695313556197931</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.63252357644343937</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.6234715757423005</v>
-      </c>
-      <c r="G42" s="156" t="e">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7539,50 +7566,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.30352378280666881</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>1.5911749144409931E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.28932064884765663</v>
+        <f t="shared" si="37"/>
+        <v>1.2152744665538623E-2</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.30646158349403613</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.32450743240822588</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="G43" s="153" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7590,50 +7617,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.0515083234117328E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.701605795430186E-3</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G44" s="153" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7641,50 +7668,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>1.5911749144409931E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.2152744665538623E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G45" s="153" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7692,221 +7719,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.0515083234117328E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>5.1025773725901176E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.701605795430186E-3</v>
+        <f t="shared" si="40"/>
+        <v>4.987186512939526E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>6.1014840062524479E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>5.2020991849473647E-2</v>
       </c>
       <c r="G46" s="153" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>5.1025773725901176E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.987186512939526E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.1014840062524479E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>5.2020991849473647E-2</v>
-      </c>
-      <c r="G48" s="153" t="e">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7914,522 +7941,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.31183748883229523</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.24367936980114274</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.31183748883229523</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.24367936980114274</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8989,12 +8920,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9676,27 +9603,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9888,7 +9818,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9935,7 +9865,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9963,7 +9893,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10046,7 +9976,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10068,7 +9998,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10136,7 +10066,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10458,7 +10388,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10595,7 +10525,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10926,7 +10856,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10992,7 +10922,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11027,7 +10957,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11048,7 +10978,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11069,7 +10999,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11084,7 +11014,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11115,7 +11045,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11129,7 +11059,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11150,7 +11080,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11165,7 +11095,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11187,7 +11117,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11195,11 +11125,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11227,7 +11157,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11299,7 +11229,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11329,7 +11259,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11359,7 +11289,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11417,12 +11347,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11452,7 +11382,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11482,7 +11412,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11533,7 +11463,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11564,7 +11494,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11585,28 +11515,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9123810317312203E-2</v>
+        <v>5.9120123083738332E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9123810317312113E-2</v>
+        <v>5.9120123083738256E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9123810317312113E-2</v>
+        <v>5.9120123083738256E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11636,21 +11566,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0047073391662252E-2</v>
+        <v>3.0045199517546032E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0047073391662252E-2</v>
+        <v>3.0045199517546032E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0047073391662252E-2</v>
+        <v>3.0045199517546032E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11667,27 +11597,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11706,24 +11636,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.694714465033321</v>
+        <v>20.693063639250983</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.694714465033321</v>
+        <v>20.693063639250983</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11734,18 +11664,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1506281197287684</v>
+        <v>9.1499742151696015</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1506281197287684</v>
+        <v>9.1499742151696015</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11764,14 +11694,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11784,31 +11714,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40358479.506258391</v>
+        <v>40355260.093948178</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.288930575655563</v>
+        <v>10.288109823482554</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.288930575655563</v>
+        <v>10.288109823482554</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.683918891209604</v>
+        <v>13.682827319439083</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11826,7 +11756,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11851,27 +11781,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>40358479.506258391</v>
+        <v>40355260.093948178</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7455909893072281</v>
+        <v>8.7448933499601704</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.288930575655563</v>
+        <v>10.288109823482554</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.288930575655563</v>
+        <v>10.288109823482554</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.288930575655563</v>
+        <v>10.288109823482552</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.683918891209604</v>
+        <v>13.682827319439083</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11881,21 +11811,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11908,31 +11838,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17845399.029953256</v>
+        <v>17844123.796424676</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8670575023211562</v>
+        <v>3.8667811621073214</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5494794144954778</v>
+        <v>4.5491543083615547</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5494794144954778</v>
+        <v>4.5491543083615547</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5494794144954778</v>
+        <v>4.5491543083615547</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0506489811957254</v>
+        <v>6.0502166013740402</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11942,21 +11872,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11969,31 +11899,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29101939.268105824</v>
+        <v>29099691.945186432</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.3063242458141922</v>
+        <v>6.3058372560337457</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.4192049950755203</v>
+        <v>7.4186320659220542</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.4192049950755203</v>
+        <v>7.4186320659220542</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.4192049950755203</v>
+        <v>7.4186320659220533</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8672839362026643</v>
+        <v>9.8665219604065619</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12002,7 +11932,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E4A3DF-86FD-4C0D-83D4-42F5697E31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FACEFD52-DB3E-4BE4-88EE-E75E7ED6CDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45637</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>3922514513</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,427 +3045,431 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>98624041</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>92593322</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>88141475</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>76034844</v>
       </c>
-      <c r="G25" s="149">
-        <v>0</v>
-      </c>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="G25" s="148">
+        <v>0</v>
+      </c>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>61983946</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>59903540</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>55751561</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>47405564</v>
       </c>
-      <c r="G26" s="150">
-        <v>0</v>
-      </c>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="G26" s="149">
+        <v>0</v>
+      </c>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>29934742</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>26789160</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>27011976</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>24673872</v>
       </c>
-      <c r="G27" s="150">
-        <v>0</v>
-      </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="G27" s="149">
+        <v>0</v>
+      </c>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>1569281</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>1125263</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>77778</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>118168</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="247">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="250">
+      <c r="F44" s="247">
         <v>0.26800000000000002</v>
       </c>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0045199517546032E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>2.981541660278355E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4699734572706557E-2</v>
-      </c>
-      <c r="E45" s="152">
+        <v>2.4510833280815929E-2</v>
+      </c>
+      <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3409449930848748E-2</v>
-      </c>
-      <c r="F45" s="152">
+        <v>2.3230416616892704E-2</v>
+      </c>
+      <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6466489715137703E-2</v>
-      </c>
-      <c r="G45" s="152" t="str">
+        <v>1.6340555520543948E-2</v>
+      </c>
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3528,7 +3540,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3556,7 +3568,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3568,7 +3580,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3587,8 +3599,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3640,7 +3652,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3656,7 +3668,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3668,7 +3680,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3681,7 +3693,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3729,14 +3741,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3760,7 +3772,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3790,19 +3802,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3818,20 +3830,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3861,10 +3873,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3876,12 +3888,12 @@
         <f>C25</f>
         <v>98624041</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>98624041</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>98624041</v>
       </c>
@@ -3894,75 +3906,75 @@
         <f>C26</f>
         <v>61983946</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>61983946.000000007</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>61983946.000000007</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>29934742</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>29934742</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>29934742</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>1569281</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>1569281</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3975,12 +3987,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3993,12 +4005,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>103704</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>103703.99999999999</v>
       </c>
@@ -4007,16 +4019,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.48899999999999999</v>
       </c>
@@ -4097,7 +4109,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4149,11 +4161,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>17.52</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4191,7 +4203,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>68251.752526199998</v>
+        <v>68722.454267759997</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4201,11 +4213,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4227,11 +4239,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4239,8 +4251,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4249,10 +4261,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4260,7 +4272,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4268,13 +4280,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4283,12 +4295,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4298,7 +4310,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4309,7 +4321,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4317,13 +4329,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4333,49 +4345,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4383,79 +4395,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>6.69375228703111E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.914714446443071</v>
+        <v>17.045073597202549</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.50820597032570036</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0045199517546032E-2</v>
+        <v>2.981541660278355E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4472,10 +4484,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4483,22 +4495,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7448933499601704</v>
-      </c>
-      <c r="D29" s="129">
+        <v>8.7192262481965646</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>15.735251417354943</v>
+        <v>15.689066943371964</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.288109823482554</v>
+        <v>10.257913233172429</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.682827319439083</v>
+        <v>13.64266690727997</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4506,23 +4518,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4530,9 +4542,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4540,17 +4552,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4558,26 +4570,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4585,9 +4597,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4600,16 +4612,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5561,10 +5573,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5590,16 +5602,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5613,11 +5625,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5642,7 +5654,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5650,7 +5662,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5714,47 +5726,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>98624041</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>92593322</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>88141475</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>76034844</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5816,47 +5828,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>61983946</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>59903540</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>55751561</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>47405564</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5867,47 +5879,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>36640095</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>32689782</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>32389914</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>28629280</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5918,47 +5930,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>29934742</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>26789160</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>27011976</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>24673872</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5969,47 +5981,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6018,49 +6030,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>103704</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>157557.33333333334</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6068,50 +6080,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>6.69375228703111E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>6.2024609794933884E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>6.1014840062524479E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>5.2020991849473647E-2</v>
       </c>
-      <c r="G13" s="229" t="e">
+      <c r="G13" s="226" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6119,50 +6131,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>6601649</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>5743064.666666667</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>5377938</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>3955408</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6170,50 +6182,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.14949933235414256</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>6.7893431770070053E-2</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>0.35964178663743412</v>
       </c>
-      <c r="F15" s="232" t="e">
+      <c r="F15" s="229" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6224,47 +6236,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6273,49 +6285,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1569281</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1125263</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6326,47 +6338,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6377,47 +6389,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6426,49 +6438,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152" t="e">
+      <c r="G20" s="151" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6479,47 +6491,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6530,47 +6542,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>5032368</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4617801.666666667</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>5377938</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>3955408</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6581,47 +6593,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.8269330294425877E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>3.7403898847046445E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>4.5761130046893361E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>3.9015743887105235E-2</v>
       </c>
-      <c r="G23" s="153" t="e">
+      <c r="G23" s="152" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6632,7 +6644,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>3774276</v>
       </c>
@@ -6680,50 +6692,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>8.9775690525181348E-2</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.14134345418882355</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>0.35964178663743412</v>
       </c>
-      <c r="F25" s="233" t="e">
+      <c r="F25" s="230" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6840,43 +6852,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6891,43 +6903,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6936,49 +6948,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6993,43 +7005,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7044,43 +7056,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7146,43 +7158,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7197,43 +7209,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7248,43 +7260,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7346,47 +7358,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7395,7 +7407,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7415,47 +7427,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.64695313556197931</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.63252357644343937</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.6234715757423005</v>
       </c>
-      <c r="G40" s="156" t="e">
+      <c r="G40" s="155" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7464,49 +7476,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.28932064884765663</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.30646158349403613</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.32450743240822588</v>
       </c>
-      <c r="G41" s="153" t="e">
+      <c r="G41" s="152" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7517,47 +7529,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153" t="e">
+      <c r="G42" s="152" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7568,47 +7580,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.2152744665538623E-2</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G43" s="153" t="e">
+      <c r="G43" s="152" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7619,47 +7631,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.701605795430186E-3</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153" t="e">
+      <c r="G44" s="152" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7668,49 +7680,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153" t="e">
+      <c r="G45" s="152" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7721,47 +7733,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>5.1025773725901176E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>4.987186512939526E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>6.1014840062524479E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>5.2020991849473647E-2</v>
       </c>
-      <c r="G46" s="153" t="e">
+      <c r="G46" s="152" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7770,9 +7782,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7787,50 +7801,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7839,49 +7853,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7890,49 +7904,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7941,49 +7955,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7992,7 +8006,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8009,49 +8023,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8061,47 +8075,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8111,47 +8125,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.31183748883229523</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.24367936980114274</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8161,47 +8175,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8209,149 +8223,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9647,8 +9661,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9684,8 +9698,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9697,8 +9711,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9708,8 +9722,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9796,11 +9810,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9843,7 +9857,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9871,7 +9885,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9899,7 +9913,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9927,7 +9941,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9940,7 +9954,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9955,7 +9969,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9982,7 +9996,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10004,7 +10018,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10026,7 +10040,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10047,7 +10061,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10055,7 +10069,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10072,7 +10086,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10080,7 +10094,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10099,7 +10113,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10120,7 +10134,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10285,7 +10299,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10314,7 +10328,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10340,7 +10354,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10367,7 +10381,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10394,7 +10408,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10410,7 +10424,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10424,7 +10438,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10451,7 +10465,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10459,7 +10473,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10477,7 +10491,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10485,7 +10499,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10504,7 +10518,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10512,7 +10526,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10531,7 +10545,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10552,7 +10566,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10573,7 +10587,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10594,7 +10608,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10615,7 +10629,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10761,8 +10775,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10788,8 +10802,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10859,7 +10873,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10959,7 +10973,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10967,7 +10981,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10998,11 +11012,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11079,12 +11093,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11163,17 +11177,17 @@
         <f>Data!C6</f>
         <v>98624041</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>98624041</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>98624041</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11184,23 +11198,23 @@
         <f>Data!C8</f>
         <v>61983946</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>61983946.000000007</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>61983946.000000007</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.6284871859996084</v>
       </c>
@@ -11210,48 +11224,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>36640095</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>36640094.999999993</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>36640094.999999993</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>29934742</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>29934742</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>29934742</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.30352378280666881</v>
       </c>
@@ -11265,54 +11279,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>103704</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>103703.99999999999</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>103703.99999999999</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.0515083234117328E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>6601649</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>6.69375228703111E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>6601648.9999999925</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>6.6937522870311031E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>6601648.9999999925</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>6.6937522870311031E-2</v>
       </c>
@@ -11326,55 +11340,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>1569281</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>1569281</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>1569281</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>1.5911749144409931E-2</v>
       </c>
@@ -11382,29 +11396,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11414,27 +11428,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>5032368</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>5.1025773725901176E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>5032367.9999999925</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>5.10257737259011E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>5032367.9999999925</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>5.10257737259011E-2</v>
       </c>
@@ -11444,49 +11458,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>3774276</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>3.8269330294425877E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>3774275.9999999944</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>3.8269330294425821E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>3774275.9999999944</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>3.8269330294425821E-2</v>
       </c>
@@ -11496,69 +11510,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.96220829457514867</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.96220829457514723</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.96220829457514723</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9120123083738332E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>5.8667977835198219E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9120123083738256E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>5.8667977835198136E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9120123083738256E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>5.8667977835198136E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.50820597032569959</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.50820597032570036</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.50820597032570036</v>
       </c>
@@ -11566,23 +11580,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0045199517546032E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>2.981541660278355E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0045199517546032E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>2.981541660278355E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0045199517546032E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>2.981541660278355E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11604,7 +11618,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11627,27 +11641,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.693063639250983</v>
+        <v>20.632327510292722</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.693063639250983</v>
+        <v>20.632327510292722</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11655,27 +11669,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1499742151696015</v>
+        <v>9.1324235737073689</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1499742151696015</v>
+        <v>9.1324235737073689</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11689,25 +11703,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11718,21 +11732,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40355260.093948178</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>40236813.530213609</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.288109823482554</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>10.257913233172429</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.288109823482554</v>
-      </c>
-      <c r="I97" s="123">
+        <v>10.257913233172429</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.682827319439083</v>
+        <v>13.64266690727997</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11744,14 +11758,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11762,17 +11776,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11781,27 +11795,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>40355260.093948178</v>
+        <v>40236813.530213609</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7448933499601704</v>
+        <v>8.7192262481965646</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.288109823482554</v>
+        <v>10.257913233172429</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.288109823482554</v>
+        <v>10.257913233172429</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.288109823482552</v>
+        <v>10.257913233172429</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.682827319439083</v>
+        <v>13.64266690727997</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11813,25 +11827,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11842,27 +11856,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17844123.796424676</v>
+        <v>17809896.83451264</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8667811621073214</v>
-      </c>
-      <c r="E103" s="123">
+        <v>3.8593642570764253</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5491543083615547</v>
+        <v>4.5404285377369709</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5491543083615547</v>
-      </c>
-      <c r="H103" s="123">
+        <v>4.5404285377369709</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5491543083615547</v>
+        <v>4.5404285377369709</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0502166013740402</v>
+        <v>6.0386116307104594</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11874,25 +11888,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11903,27 +11917,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29099691.945186432</v>
+        <v>29023355.182363123</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.3058372560337457</v>
-      </c>
-      <c r="E106" s="123">
+        <v>6.2892952526364949</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>7.4186320659220542</v>
+        <v>7.3991708854546996</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.4186320659220542</v>
-      </c>
-      <c r="H106" s="123">
+        <v>7.3991708854546996</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.4186320659220533</v>
-      </c>
-      <c r="I106" s="123">
+        <v>7.3991708854546996</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>9.8665219604065619</v>
+        <v>9.8406392689952149</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11934,14 +11948,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FACEFD52-DB3E-4BE4-88EE-E75E7ED6CDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0B3843-5608-4D3D-BB5F-F6A94B2212C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3275,9 +3275,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3341,9 +3339,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3359,9 +3355,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3419,19 +3413,19 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.981541660278355E-2</v>
+        <v>2.9645277876047482E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4510833280815929E-2</v>
+        <v>2.4370964634296707E-2</v>
       </c>
       <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3230416616892704E-2</v>
+        <v>2.3097854541460308E-2</v>
       </c>
       <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6340555520543948E-2</v>
+        <v>1.6247309756197804E-2</v>
       </c>
       <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4162,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>17.52</v>
+        <v>17.62</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4203,7 +4197,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>68722.454267759997</v>
+        <v>69114.705719060003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4252,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4435,7 +4429,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.045073597202549</v>
+        <v>17.142897848709858</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4467,7 +4461,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.981541660278355E-2</v>
+        <v>2.9645277876047482E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4497,20 +4491,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7192262481965646</v>
+        <v>8.7051768507516698</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>15.689066943371964</v>
+        <v>15.663786955130739</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.257913233172429</v>
+        <v>10.241384530296083</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.64266690727997</v>
+        <v>13.62068430880934</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11533,17 +11527,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8667977835198219E-2</v>
+        <v>5.8333194820691277E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8667977835198136E-2</v>
+        <v>5.8333194820691187E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8667977835198136E-2</v>
+        <v>5.8333194820691187E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11584,17 +11578,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.981541660278355E-2</v>
+        <v>2.9645277876047482E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.981541660278355E-2</v>
+        <v>2.9645277876047482E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.981541660278355E-2</v>
+        <v>2.9645277876047482E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11654,14 +11648,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.632327510292722</v>
+        <v>20.59908238496233</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.632327510292722</v>
+        <v>20.59908238496233</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11682,14 +11676,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1324235737073689</v>
+        <v>9.1245973163609477</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1324235737073689</v>
+        <v>9.1245973163609477</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11732,21 +11726,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40236813.530213609</v>
+        <v>40171979.453300074</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.257913233172429</v>
+        <v>10.241384530296083</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.257913233172429</v>
+        <v>10.241384530296083</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.64266690727997</v>
+        <v>13.62068430880934</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11795,27 +11789,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>40236813.530213609</v>
+        <v>40171979.453300074</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7192262481965646</v>
+        <v>8.7051768507516698</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.257913233172429</v>
+        <v>10.241384530296083</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.257913233172429</v>
+        <v>10.241384530296083</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.257913233172429</v>
+        <v>10.241384530296083</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.64266690727997</v>
+        <v>13.62068430880934</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11856,27 +11850,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17809896.83451264</v>
+        <v>17794634.200797155</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8593642570764253</v>
+        <v>3.8560568789608918</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5404285377369709</v>
+        <v>4.536537504659873</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5404285377369709</v>
+        <v>4.536537504659873</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5404285377369709</v>
+        <v>4.536537504659873</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0386116307104594</v>
+        <v>6.0334366923980163</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11917,27 +11911,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29023355.182363123</v>
+        <v>28983306.827048618</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2892952526364949</v>
+        <v>6.280616864856281</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>7.3991708854546996</v>
+        <v>7.3889610174779783</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.3991708854546996</v>
+        <v>7.3889610174779783</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.3991708854546996</v>
+        <v>7.3889610174779783</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>9.8406392689952149</v>
+        <v>9.8270605006036789</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0B3843-5608-4D3D-BB5F-F6A94B2212C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DAA54C3-CB24-45E0-AEE9-D6D3657C9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>3922514513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>3922514513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,819 +3036,820 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>98624041</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>92593322</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>88141475</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>76034844</v>
       </c>
-      <c r="G25" s="148">
-        <v>0</v>
-      </c>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="G25" s="147">
+        <v>0</v>
+      </c>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>61983946</v>
+      </c>
+      <c r="D26" s="148">
+        <v>59903540</v>
+      </c>
+      <c r="E26" s="148">
+        <v>55751561</v>
+      </c>
+      <c r="F26" s="148">
+        <v>47405564</v>
+      </c>
+      <c r="G26" s="148">
+        <v>0</v>
+      </c>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>29934742</v>
+      </c>
+      <c r="D27" s="148">
+        <v>26789160</v>
+      </c>
+      <c r="E27" s="148">
+        <v>27011976</v>
+      </c>
+      <c r="F27" s="148">
+        <v>24673872</v>
+      </c>
+      <c r="G27" s="148">
+        <v>0</v>
+      </c>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>61983946</v>
-      </c>
-      <c r="D26" s="149">
-        <v>59903540</v>
-      </c>
-      <c r="E26" s="149">
-        <v>55751561</v>
-      </c>
-      <c r="F26" s="149">
-        <v>47405564</v>
-      </c>
-      <c r="G26" s="149">
-        <v>0</v>
-      </c>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>1569281</v>
+      </c>
+      <c r="D29" s="148">
+        <v>1125263</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>77778</v>
+      </c>
+      <c r="D30" s="148">
+        <v>118168</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>29934742</v>
-      </c>
-      <c r="D27" s="149">
-        <v>26789160</v>
-      </c>
-      <c r="E27" s="149">
-        <v>27011976</v>
-      </c>
-      <c r="F27" s="149">
-        <v>24673872</v>
-      </c>
-      <c r="G27" s="149">
-        <v>0</v>
-      </c>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>1569281</v>
-      </c>
-      <c r="D29" s="149">
-        <v>1125263</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>77778</v>
-      </c>
-      <c r="D30" s="149">
-        <v>118168</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E44" s="247">
+      <c r="E44" s="245">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="247">
+      <c r="F44" s="245">
         <v>0.26800000000000002</v>
       </c>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9645277876047482E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>3.0048083813198689E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4370964634296707E-2</v>
-      </c>
-      <c r="E45" s="151">
+        <v>2.4702105711463956E-2</v>
+      </c>
+      <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3097854541460308E-2</v>
-      </c>
-      <c r="F45" s="151">
+        <v>2.3411697204148672E-2</v>
+      </c>
+      <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6247309756197804E-2</v>
-      </c>
-      <c r="G45" s="151" t="str">
+        <v>1.6468070474309305E-2</v>
+      </c>
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3863,166 +3858,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>98624041</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>98624041</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>98624041</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>61983946</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>61983946.000000007</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>61983946.000000007</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>29934742</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>29934742</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>29934742</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>1569281</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>1569281</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>103704</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>103703.99999999999</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.48899999999999999</v>
       </c>
@@ -4035,32 +4030,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4119,13 +4114,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4136,82 +4131,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>2319.HK : 蒙牛乳業</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>17.62</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="G3" s="130">
+        <v>17.38</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>3922514513</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>69114.705719060003</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>68173.302235939991</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4222,31 +4217,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4255,280 +4250,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>6.69375228703111E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.142897848709858</v>
+        <v>16.913090814212577</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.50820597032570036</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9645277876047482E-2</v>
+        <v>3.0048083813198689E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7051768507516698</v>
-      </c>
-      <c r="D29" s="128">
+        <v>8.7359143400208712</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>15.663786955130739</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>15.719094904837336</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.241384530296083</v>
-      </c>
-      <c r="G29" s="286">
+        <v>10.277546282377497</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.62068430880934</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>13.668778178119423</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4536,9 +4531,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4546,17 +4541,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4564,26 +4559,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4591,9 +4586,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4606,16 +4601,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5567,10 +5562,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5596,59 +5591,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>6601649</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5656,19 +5651,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5717,928 +5712,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>98624041</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>92593322</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>88141475</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>76034844</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>6.5131252122048178E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>5.0507970283002468E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.15922477594614382</v>
       </c>
-      <c r="F7" s="92" t="e">
+      <c r="F7" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>61983946</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>59903540</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>55751561</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>47405564</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>36640095</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>32689782</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>32389914</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>28629280</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>29934742</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>26789160</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>27011976</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>24673872</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>103704</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>157557.33333333334</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>6.69375228703111E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>6.2024609794933884E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>6.1014840062524479E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>5.2020991849473647E-2</v>
       </c>
-      <c r="G13" s="226" t="e">
+      <c r="G13" s="224" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>6601649</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>5743064.666666667</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>5377938</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>3955408</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.14949933235414256</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>6.7893431770070053E-2</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>0.35964178663743412</v>
       </c>
-      <c r="F15" s="229" t="e">
+      <c r="F15" s="227" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1569281</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1125263</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151" t="e">
+      <c r="G20" s="150" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>5032368</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4617801.666666667</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>5377938</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>3955408</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.8269330294425877E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>3.7403898847046445E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>4.5761130046893361E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>3.9015743887105235E-2</v>
       </c>
-      <c r="G23" s="152" t="e">
+      <c r="G23" s="151" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>3774276</v>
       </c>
@@ -6682,63 +6677,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>8.9775690525181348E-2</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.14134345418882355</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>0.35964178663743412</v>
       </c>
-      <c r="F25" s="230" t="e">
+      <c r="F25" s="228" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6784,11 +6779,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6835,266 +6830,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7141,165 +7136,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7345,63 +7340,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7414,372 +7409,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.64695313556197931</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.63252357644343937</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.6234715757423005</v>
       </c>
-      <c r="G40" s="155" t="e">
+      <c r="G40" s="154" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.28932064884765663</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.30646158349403613</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.32450743240822588</v>
       </c>
-      <c r="G41" s="152" t="e">
+      <c r="G41" s="151" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152" t="e">
+      <c r="G42" s="151" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.2152744665538623E-2</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G43" s="152" t="e">
+      <c r="G43" s="151" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.701605795430186E-3</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152" t="e">
+      <c r="G44" s="151" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152" t="e">
+      <c r="G45" s="151" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>5.1025773725901176E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>4.987186512939526E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>6.1014840062524479E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>5.2020991849473647E-2</v>
       </c>
-      <c r="G46" s="152" t="e">
+      <c r="G46" s="151" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7791,216 +7786,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8016,350 +8011,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.31183748883229523</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.24367936980114274</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9638,7 +9633,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9656,7 +9651,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9674,25 +9669,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9700,12 +9695,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9713,28 +9708,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9747,7 +9742,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9756,16 +9751,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9773,7 +9768,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9783,287 +9778,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10074,21 +10069,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10101,45 +10096,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10147,17 +10142,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10167,19 +10162,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10189,17 +10184,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10208,7 +10203,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10218,17 +10213,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10241,7 +10236,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10251,17 +10246,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10288,12 +10283,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10303,171 +10298,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10475,25 +10470,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10501,26 +10496,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10528,113 +10523,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10642,17 +10637,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10662,16 +10657,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10681,16 +10676,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10700,14 +10695,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10720,7 +10715,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10730,14 +10725,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10750,13 +10745,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10764,12 +10759,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10780,63 +10775,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10844,45 +10839,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10890,61 +10885,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10958,35 +10953,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11000,29 +10995,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11036,9 +11031,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11046,28 +11041,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11081,29 +11076,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11117,29 +11112,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11149,66 +11144,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>98624041</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>98624041</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>98624041</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>61983946</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>61983946.000000007</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.6284871859996084</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>61983946.000000007</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.6284871859996084</v>
       </c>
@@ -11216,50 +11211,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>36640095</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>36640094.999999993</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>36640094.999999993</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>29934742</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>29934742</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.30352378280666881</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>29934742</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.30352378280666881</v>
       </c>
@@ -11267,60 +11262,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>103704</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>103703.99999999999</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.0515083234117328E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>103703.99999999999</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.0515083234117328E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>6601649</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>6.69375228703111E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>6601648.9999999925</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>6.6937522870311031E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>6601648.9999999925</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>6.6937522870311031E-2</v>
       </c>
@@ -11328,61 +11323,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>1569281</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>1569281</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>1569281</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>1.5911749144409931E-2</v>
       </c>
@@ -11390,59 +11385,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>5032368</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>5.1025773725901176E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>5032367.9999999925</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>5.10257737259011E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>5032367.9999999925</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>5.10257737259011E-2</v>
       </c>
@@ -11450,184 +11445,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>3774276</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>3.8269330294425877E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>3774275.9999999944</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>3.8269330294425821E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>3774275.9999999944</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>3.8269330294425821E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.96220829457514867</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.96220829457514723</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.96220829457514723</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8333194820691277E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>5.9125798529957141E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8333194820691187E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>5.9125798529957051E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8333194820691187E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>5.9125798529957051E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.50820597032569959</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.50820597032570036</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.50820597032570036</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9645277876047482E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>3.0048083813198689E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9645277876047482E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>3.0048083813198689E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9645277876047482E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>3.0048083813198689E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11635,55 +11630,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.59908238496233</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>20.671816584923874</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.59908238496233</v>
+        <v>20.671816584923874</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1245973163609477</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>9.1404623509682068</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1245973163609477</v>
+        <v>9.1404623509682068</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11693,123 +11688,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40171979.453300074</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>40313824.450654931</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.241384530296083</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>10.277546282377497</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.241384530296083</v>
-      </c>
-      <c r="I97" s="122">
+        <v>10.277546282377497</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.62068430880934</v>
+        <v>13.668778178119423</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>40171979.453300074</v>
-      </c>
-      <c r="D100" s="109">
+        <v>40313824.450654931</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7051768507516698</v>
-      </c>
-      <c r="E100" s="109">
+        <v>8.7359143400208712</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.241384530296083</v>
-      </c>
-      <c r="F100" s="109">
+        <v>10.277546282377497</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.241384530296083</v>
-      </c>
-      <c r="H100" s="109">
+        <v>10.277546282377497</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.241384530296083</v>
-      </c>
-      <c r="I100" s="109">
+        <v>10.277546282377498</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.62068430880934</v>
+        <v>13.668778178119423</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11819,58 +11814,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17794634.200797155</v>
-      </c>
-      <c r="D103" s="109">
+        <v>17825573.920943819</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8560568789608918</v>
-      </c>
-      <c r="E103" s="122">
+        <v>3.8627614461556088</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.536537504659873</v>
-      </c>
-      <c r="F103" s="109">
+        <v>4.5444252307713047</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.536537504659873</v>
-      </c>
-      <c r="H103" s="122">
+        <v>4.5444252307713047</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.536537504659873</v>
-      </c>
-      <c r="I103" s="109">
+        <v>4.5444252307713047</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0334366923980163</v>
+        <v>6.0439270930816686</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11880,58 +11875,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>28983306.827048618</v>
-      </c>
-      <c r="D106" s="109">
+        <v>29069699.185799371</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.280616864856281</v>
-      </c>
-      <c r="E106" s="122">
+        <v>6.2993378930882402</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.3889610174779783</v>
-      </c>
-      <c r="F106" s="109">
+        <v>7.4109857565744006</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.3889610174779783</v>
-      </c>
-      <c r="H106" s="122">
+        <v>7.4109857565744006</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.3889610174779783</v>
-      </c>
-      <c r="I106" s="122">
+        <v>7.4109857565744015</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>9.8270605006036789</v>
+        <v>9.8563526356005458</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11940,15 +11935,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DAA54C3-CB24-45E0-AEE9-D6D3657C9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACD6FE1-7687-40FC-BA47-F86FBB300B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3407,19 +3424,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0048083813198689E-2</v>
+        <v>2.9555121897841093E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4702105711463956E-2</v>
+        <v>2.4296848676752806E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3411697204148672E-2</v>
+        <v>2.3027610313041836E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6468070474309305E-2</v>
+        <v>1.6197899117835205E-2</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3840,11 +3857,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3858,10 +3875,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4083,8 +4100,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4097,8 +4117,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4141,60 +4161,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>17.38</v>
+        <v>17.66</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>3922514513</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>68173.302235939991</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>69271.606299580002</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4217,11 +4237,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4241,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4362,7 +4382,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4374,20 +4394,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>6.69375228703111E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4396,12 +4416,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>6.69375228703111E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4412,10 +4432,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.5911749144409931E-2</v>
       </c>
@@ -4424,7 +4444,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.913090814212577</v>
+        <v>17.195191144274155</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4456,7 +4476,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0048083813198689E-2</v>
+        <v>2.9555121897841093E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4475,10 +4495,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4486,22 +4506,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7359143400208712</v>
+        <v>8.6911171688745767</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>15.719094904837336</v>
+        <v>15.638488461446412</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.277546282377497</v>
-      </c>
-      <c r="G29" s="285">
+        <v>10.224843728087738</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.668778178119423</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>13.598685618649055</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5532,7 +5552,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7773,7 +7793,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9700,7 +9720,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10747,7 +10767,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10764,7 +10784,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10873,11 +10893,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10888,11 +10908,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10904,11 +10924,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11122,19 +11142,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11144,18 +11164,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11522,17 +11542,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9125798529957141E-2</v>
+        <v>5.8155794350270573E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9125798529957051E-2</v>
+        <v>5.815579435027049E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9125798529957051E-2</v>
+        <v>5.815579435027049E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11573,17 +11593,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0048083813198689E-2</v>
+        <v>2.9555121897841093E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0048083813198689E-2</v>
+        <v>2.9555121897841093E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0048083813198689E-2</v>
+        <v>2.9555121897841093E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11614,15 +11634,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11643,14 +11663,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.671816584923874</v>
+        <v>20.565812923553562</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.671816584923874</v>
+        <v>20.565812923553562</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11671,14 +11691,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1404623509682068</v>
+        <v>9.1135082074621359</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1404623509682068</v>
+        <v>9.1135082074621359</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11721,21 +11741,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40313824.450654931</v>
+        <v>40107097.916581176</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.277546282377497</v>
+        <v>10.224843728087738</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.277546282377497</v>
+        <v>10.224843728087738</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.668778178119423</v>
+        <v>13.598685618649055</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11784,27 +11804,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>40313824.450654931</v>
+        <v>40107097.916581176</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7359143400208712</v>
+        <v>8.6911171688745767</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.277546282377497</v>
+        <v>10.224843728087738</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.277546282377497</v>
+        <v>10.224843728087738</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.277546282377498</v>
+        <v>10.224843728087738</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.668778178119423</v>
+        <v>13.598685618649055</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11845,27 +11865,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17825573.920943819</v>
+        <v>17773008.409584068</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8627614461556088</v>
+        <v>3.8513706190451655</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5444252307713047</v>
+        <v>4.5310242577001949</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.5444252307713047</v>
+        <v>4.5310242577001949</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5444252307713047</v>
+        <v>4.5310242577001949</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0439270930816686</v>
+        <v>6.0261042661882458</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11906,27 +11926,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29069699.185799371</v>
+        <v>28940053.163082622</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.2993378930882402</v>
+        <v>6.2712438939598716</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.4109857565744006</v>
+        <v>7.3779339928939667</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.4109857565744006</v>
+        <v>7.3779339928939667</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.4109857565744015</v>
+        <v>7.3779339928939667</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>9.8563526356005458</v>
+        <v>9.812394942418651</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACD6FE1-7687-40FC-BA47-F86FBB300B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED43FD2-FEB2-4114-A794-A25ED660367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3424,19 +3424,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9555121897841093E-2</v>
+        <v>2.9508114225597105E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4296848676752806E-2</v>
+        <v>2.425820433269946E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3027610313041836E-2</v>
+        <v>2.2990984703379336E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6197899117835205E-2</v>
+        <v>1.6172136221799641E-2</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4261,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.195191144274155</v>
+        <v>17.2225838100102</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9555121897841093E-2</v>
+        <v>2.9508114225597105E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4506,20 +4506,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.6911171688745767</v>
+        <v>8.6735019655900309</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>15.638488461446412</v>
+        <v>15.606792288450611</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.224843728087738</v>
+        <v>10.204119959517683</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.598685618649055</v>
+        <v>13.571123729087489</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9671,7 +9671,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11542,17 +11542,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8155794350270573E-2</v>
+        <v>5.8063297065726938E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.815579435027049E-2</v>
+        <v>5.8063297065726847E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.815579435027049E-2</v>
+        <v>5.8063297065726847E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11593,17 +11593,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9555121897841093E-2</v>
+        <v>2.9508114225597105E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9555121897841093E-2</v>
+        <v>2.9508114225597105E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9555121897841093E-2</v>
+        <v>2.9508114225597105E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11663,14 +11663,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.565812923553562</v>
+        <v>20.524130022688094</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.565812923553562</v>
+        <v>20.524130022688094</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11691,14 +11691,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1135082074621359</v>
+        <v>9.0969360604751301</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1135082074621359</v>
+        <v>9.0969360604751301</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11741,21 +11741,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40107097.916581176</v>
+        <v>40025808.633601092</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.224843728087738</v>
+        <v>10.204119959517683</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.224843728087738</v>
+        <v>10.204119959517683</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.598685618649055</v>
+        <v>13.571123729087489</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11782,7 +11782,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11804,27 +11804,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>40107097.916581176</v>
+        <v>40025808.633601092</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.6911171688745767</v>
+        <v>8.6735019655900309</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.224843728087738</v>
+        <v>10.204119959517683</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.224843728087738</v>
+        <v>10.204119959517683</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.224843728087738</v>
+        <v>10.204119959517685</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.598685618649055</v>
+        <v>13.571123729087489</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11865,27 +11865,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17773008.409584068</v>
+        <v>17740689.690923806</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8513706190451655</v>
+        <v>3.8443672259996644</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5310242577001949</v>
+        <v>4.5227849717643114</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.5310242577001949</v>
+        <v>4.5227849717643114</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5310242577001949</v>
+        <v>4.5227849717643114</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0261042661882458</v>
+        <v>6.0151463031969445</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11926,27 +11926,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>28940053.163082622</v>
+        <v>28883249.162262447</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.2712438939598716</v>
+        <v>6.2589345957948481</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.3779339928939667</v>
+        <v>7.3634524656409974</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.3779339928939667</v>
+        <v>7.3634524656409974</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.3779339928939667</v>
+        <v>7.3634524656409983</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>9.812394942418651</v>
+        <v>9.7931350161422159</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287FA314-2EA5-4A37-8F43-D19507F0462A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D039187D-04D3-4290-9794-58244D74A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3637,19 +3637,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0037446523098144E-2</v>
+        <v>2.9897469446576876E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4693360945369027E-2</v>
+        <v>2.4578287765897558E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3403409254193031E-2</v>
+        <v>2.3294347360216339E-2</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6462240630246018E-2</v>
+        <v>1.6385525177265037E-2</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>17.32</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>67937.951365159999</v>
+        <v>68251.752526199998</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4474,7 +4474,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4605,7 +4605,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.919080319790197</v>
+        <v>16.99829382663313</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0037446523098144E-2</v>
+        <v>2.9897469446576876E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4724,20 +4724,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.259531979627399</v>
+        <v>8.6899601510119364</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>16.47064538461936</v>
+        <v>15.636406564477014</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.070037623091057</v>
+        <v>10.223482530602279</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.322300334451619</v>
+        <v>13.596875273458274</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11774,17 +11774,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.910486746908486E-2</v>
+        <v>5.8829433718411768E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9104867469084769E-2</v>
+        <v>5.8829433718411678E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9104867469084769E-2</v>
+        <v>5.8829433718411678E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11825,17 +11825,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0037446523098144E-2</v>
+        <v>2.9897469446576876E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0037446523098144E-2</v>
+        <v>2.9897469446576876E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0037446523098144E-2</v>
+        <v>2.9897469446576876E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11888,21 +11888,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.357018470018605</v>
+        <v>20.563075069207578</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.357018470018605</v>
+        <v>20.563075069207578</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11923,14 +11923,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.581911989524345</v>
+        <v>9.0984570988953894</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.581911989524345</v>
+        <v>9.0984570988953894</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11973,21 +11973,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>47344897.749030694</v>
+        <v>40101758.599689409</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.070037623091057</v>
+        <v>10.223482530602279</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.070037623091057</v>
+        <v>10.223482530602279</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.322300334451619</v>
+        <v>13.596875273458274</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12037,23 +12037,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.259531979627399</v>
+        <v>8.6899601510119364</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.070037623091057</v>
+        <v>10.223482530602279</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>12.070037623091057</v>
+        <v>10.223482530602279</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.070037623091057</v>
+        <v>10.223482530602279</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.322300334451619</v>
+        <v>13.596875273458274</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12092,23 +12092,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.7963344726527133</v>
+        <v>3.8450100171783057</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.6427464384149566</v>
+        <v>4.5235411966803598</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.6427464384149566</v>
+        <v>4.5235411966803598</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.6427464384149566</v>
+        <v>4.5235411966803598</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.6956799743130784</v>
+        <v>6.0161520559657689</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12147,23 +12147,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>7.527933226140056</v>
+        <v>6.2674850840951208</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>8.8563920307530068</v>
+        <v>7.3735118636413191</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>8.8563920307530068</v>
+        <v>7.3735118636413191</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.8563920307530068</v>
+        <v>7.3735118636413191</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>10.508990154382349</v>
+        <v>9.8065136647120212</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D039187D-04D3-4290-9794-58244D74A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A646B6-E426-49E9-BFD2-B822A92EB4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3637,19 +3638,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9897469446576876E-2</v>
+        <v>2.9966357625025208E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4578287765897558E-2</v>
+        <v>2.463491976535815E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3294347360216339E-2</v>
+        <v>2.3348020971645407E-2</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6385525177265037E-2</v>
+        <v>1.64232798435721E-2</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4289,7 +4290,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4312,6 +4313,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4330,8 +4334,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4367,24 +4371,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>17.399999999999999</v>
+        <v>17.36</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4394,7 +4401,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
@@ -4423,11 +4430,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>68251.752526199998</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>68094.851945679999</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4450,11 +4457,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4522,10 +4529,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4572,7 +4579,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4662,7 +4669,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.99829382663313</v>
+        <v>16.959217289100639</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4694,7 +4701,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9897469446576876E-2</v>
+        <v>2.9966357625025208E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4713,10 +4720,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4724,22 +4731,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.6899601510119364</v>
+        <v>9.5219581354421337</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>15.636406564477014</v>
+        <v>17.594240656652428</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.223482530602279</v>
-      </c>
-      <c r="G29" s="312">
+        <v>11.202303688755451</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.596875273458274</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>15.299339701436894</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5721,15 +5728,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5757,7 +5765,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11774,17 +11782,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8829433718411768E-2</v>
+        <v>5.896498540900718E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8829433718411678E-2</v>
+        <v>5.896498540900709E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8829433718411678E-2</v>
+        <v>5.896498540900709E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11825,17 +11833,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9897469446576876E-2</v>
+        <v>2.9966357625025208E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9897469446576876E-2</v>
+        <v>2.9966357625025208E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9897469446576876E-2</v>
+        <v>2.9966357625025208E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11884,7 +11892,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11895,14 +11903,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.563075069207578</v>
+        <v>22.531834040936033</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.563075069207578</v>
+        <v>22.531834040936033</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11923,14 +11931,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.0984570988953894</v>
+        <v>9.966519045650216</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.0984570988953894</v>
+        <v>9.966519045650216</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11973,21 +11981,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40101758.599689409</v>
+        <v>43941198.798176698</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.223482530602279</v>
+        <v>11.202303688755451</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.223482530602279</v>
+        <v>11.202303688755451</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.596875273458274</v>
+        <v>15.299339701436894</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12037,23 +12045,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.6899601510119364</v>
+        <v>9.5219581354421337</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.223482530602279</v>
+        <v>11.202303688755451</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>10.223482530602279</v>
+        <v>11.202303688755451</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.223482530602279</v>
+        <v>11.202303688755451</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.596875273458274</v>
+        <v>15.299339701436894</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12092,23 +12100,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8450100171783057</v>
+        <v>4.2118531911939119</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5235411966803598</v>
+        <v>4.9551214014046021</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.5235411966803598</v>
+        <v>4.9551214014046021</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5235411966803598</v>
+        <v>4.9551214014046021</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0161520559657689</v>
+        <v>6.7673656855102964</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12147,23 +12155,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.2674850840951208</v>
+        <v>6.8669056633180228</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>7.3735118636413191</v>
+        <v>8.0787125450800268</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.3735118636413191</v>
+        <v>8.0787125450800268</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.3735118636413191</v>
+        <v>8.0787125450800268</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>9.8065136647120212</v>
+        <v>11.033352693473596</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A646B6-E426-49E9-BFD2-B822A92EB4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34873BFD-468E-4793-B9B6-A7E314A3EE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3638,19 +3638,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9966357625025208E-2</v>
+        <v>2.9931873899334733E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.463491976535815E-2</v>
+        <v>2.4606571181048188E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3348020971645407E-2</v>
+        <v>2.3321153283530741E-2</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.64232798435721E-2</v>
+        <v>1.6404380787365457E-2</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4371,27 +4371,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>17.36</v>
+        <v>17.38</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4401,40 +4401,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>3922514513</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>68094.851945679999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>68173.302235939991</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4457,11 +4457,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4612,7 +4612,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.959217289100639</v>
+        <v>16.978755557866883</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9966357625025208E-2</v>
+        <v>2.9931873899334733E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4720,10 +4720,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.5219581354421337</v>
+        <v>10.337873017163222</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>17.594240656652428</v>
+        <v>17.947434808155155</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.202303688755451</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.162203549603792</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.299339701436894</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>15.606465050569701</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5729,15 +5729,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11110,7 +11110,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11121,11 +11121,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11137,11 +11137,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11782,17 +11782,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.896498540900718E-2</v>
+        <v>5.8897131570791982E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.896498540900709E-2</v>
+        <v>5.8897131570791891E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.896498540900709E-2</v>
+        <v>5.8897131570791891E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11833,17 +11833,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9966357625025208E-2</v>
+        <v>2.9931873899334733E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9966357625025208E-2</v>
+        <v>2.9931873899334733E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9966357625025208E-2</v>
+        <v>2.9931873899334733E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11896,21 +11896,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.531834040936033</v>
+        <v>21.271770022029209</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.531834040936033</v>
+        <v>21.271770022029209</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11931,14 +11931,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.966519045650216</v>
+        <v>9.6752523081736133</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.966519045650216</v>
+        <v>9.6752523081736133</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11981,21 +11981,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>43941198.798176698</v>
+        <v>47706419.933380991</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.202303688755451</v>
+        <v>12.162203549603792</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.202303688755451</v>
+        <v>12.162203549603792</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.299339701436894</v>
+        <v>15.606465050569701</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12045,23 +12045,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.5219581354421337</v>
+        <v>10.337873017163222</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.202303688755451</v>
+        <v>12.162203549603792</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>11.202303688755451</v>
+        <v>12.162203549603792</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>11.202303688755451</v>
+        <v>12.162203549603792</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.299339701436894</v>
+        <v>15.606465050569701</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12100,23 +12100,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2118531911939119</v>
+        <v>4.7020783727602877</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9551214014046021</v>
+        <v>5.5318569091297505</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.9551214014046021</v>
+        <v>5.5318569091297505</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9551214014046021</v>
+        <v>5.5318569091297505</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.7673656855102964</v>
+        <v>7.0984448800726128</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12155,23 +12155,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.8669056633180228</v>
+        <v>7.5199756949617544</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>8.0787125450800268</v>
+        <v>8.8470302293667711</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>8.0787125450800268</v>
+        <v>8.8470302293667711</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.0787125450800268</v>
+        <v>8.8470302293667711</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>11.033352693473596</v>
+        <v>11.352454965321158</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE59D780-ED75-459D-A128-EE98CFF31647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B5DD80-96A2-4D1E-AA05-F2E47D8A3CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3661,19 +3661,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9930937002113963E-2</v>
+        <v>3.1430878558596553E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4605800971063015E-2</v>
+        <v>2.5838881759827841E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3320423308395545E-2</v>
+        <v>2.4489089429090567E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6403867314042014E-2</v>
+        <v>1.7225921173218559E-2</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4399,27 +4399,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>17.38</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4429,7 +4429,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
@@ -4458,11 +4458,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>68173.302235939991</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>64956.840335280001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4485,11 +4485,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4509,7 +4509,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.979287026323522</v>
+        <v>16.16900301969773</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9930937002113963E-2</v>
+        <v>3.1430878558596553E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4748,10 +4748,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4759,22 +4759,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.423623086420632</v>
+        <v>10.546315118484472</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>18.129839241692718</v>
+        <v>18.343237865099571</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.263085984024272</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.407429551158202</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.76507760147193</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>15.950641621825714</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5757,15 +5757,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11912,17 +11912,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8895288032393238E-2</v>
+        <v>6.1846732218539452E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8895288032393148E-2</v>
+        <v>6.1846732218539369E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8895288032393148E-2</v>
+        <v>6.1846732218539369E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11963,17 +11963,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9930937002113963E-2</v>
+        <v>3.1430878558596553E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9930937002113963E-2</v>
+        <v>3.1430878558596553E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9930937002113963E-2</v>
+        <v>3.1430878558596553E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12033,14 +12033,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.448214030345845</v>
+        <v>21.700671831410382</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.448214030345845</v>
+        <v>21.700671831410382</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12061,14 +12061,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7555385447496192</v>
+        <v>9.8180698758468097</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7555385447496192</v>
+        <v>9.8180698758468097</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12111,21 +12111,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>48102132.746502094</v>
+        <v>48668322.483443126</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.263085984024272</v>
+        <v>12.407429551158202</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.263085984024272</v>
+        <v>12.407429551158202</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.76507760147193</v>
+        <v>15.950641621825714</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12175,23 +12175,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.423623086420632</v>
+        <v>10.546315118484472</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.263085984024272</v>
+        <v>12.407429551158202</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>12.263085984024272</v>
+        <v>12.407429551158202</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.263085984024272</v>
+        <v>12.407429551158202</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.76507760147193</v>
+        <v>15.950641621825714</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12230,23 +12230,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.7410967016482521</v>
+        <v>4.7714863194284129</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.5777608254685322</v>
+        <v>5.6135133169746041</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.5777608254685322</v>
+        <v>5.6135133169746041</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.5777608254685322</v>
+        <v>5.6135133169746041</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1706120604974384</v>
+        <v>7.2165744555889724</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12285,23 +12285,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.5823598940344414</v>
+        <v>7.658900718956442</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>8.9204234047464013</v>
+        <v>9.0104714340664032</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>8.9204234047464013</v>
+        <v>9.0104714340664032</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>8.9204234047464013</v>
+        <v>9.0104714340664032</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>11.467844830984685</v>
+        <v>11.583608038707343</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/2319.HK_Valuation.xlsx
+++ b/financial_models/opportunities/2319.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B5DD80-96A2-4D1E-AA05-F2E47D8A3CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2CACE9-DED4-41CF-8FD0-8496BFA87011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3661,19 +3661,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1430878558596553E-2</v>
+        <v>3.4328500942263022E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.5838881759827841E-2</v>
+        <v>2.8220976234743837E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4489089429090567E-2</v>
+        <v>2.6746746132928857E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7225921173218559E-2</v>
+        <v>1.8813984156495892E-2</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4399,27 +4399,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>2319.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>16.559999999999999</v>
+        <v>15.12</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4429,40 +4429,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>蒙牛乳業</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>3922514513</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>64956.840335280001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>59308.419436559998</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4485,11 +4485,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4509,7 +4509,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.16900301969773</v>
+        <v>14.804199320571849</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1430878558596553E-2</v>
+        <v>3.4328500942263022E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4748,10 +4748,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4759,22 +4759,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.546315118484472</v>
+        <v>10.744679851334894</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>18.343237865099571</v>
+        <v>18.688254246446338</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.407429551158202</v>
-      </c>
-      <c r="G29" s="314">
+        <v>12.640799825099876</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.950641621825714</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>16.250655866475078</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5757,15 +5757,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11240,7 +11240,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11251,11 +11251,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11267,11 +11267,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11912,17 +11912,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1846732218539452E-2</v>
+        <v>6.7548401527558879E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1846732218539369E-2</v>
+        <v>6.7548401527558768E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1846732218539369E-2</v>
+        <v>6.7548401527558768E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11963,17 +11963,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1430878558596553E-2</v>
+        <v>3.4328500942263022E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1430878558596553E-2</v>
+        <v>3.4328500942263022E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1430878558596553E-2</v>
+        <v>3.4328500942263022E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12033,14 +12033,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.700671831410382</v>
+        <v>22.108837899098582</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.700671831410382</v>
+        <v>22.108837899098582</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12061,14 +12061,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.8180698758468097</v>
+        <v>9.9012345178028927</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.8180698758468097</v>
+        <v>9.9012345178028927</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12111,21 +12111,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>48668322.483443126</v>
+        <v>49583720.769882128</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.407429551158202</v>
+        <v>12.640799825099876</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.407429551158202</v>
+        <v>12.640799825099876</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.950641621825714</v>
+        <v>16.250655866475078</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12175,23 +12175,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.546315118484472</v>
+        <v>10.744679851334894</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.407429551158202</v>
+        <v>12.640799825099876</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>12.407429551158202</v>
+        <v>12.640799825099876</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.407429551158202</v>
+        <v>12.640799825099876</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.950641621825714</v>
+        <v>16.250655866475078</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12230,23 +12230,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.7714863194284129</v>
+        <v>4.8119035252918394</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.6135133169746041</v>
+        <v>5.6610629709315763</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.6135133169746041</v>
+        <v>5.6610629709315763</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.6135133169746041</v>
+        <v>5.6610629709315763</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2165744555889724</v>
+        <v>7.277702950123822</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12285,23 +12285,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.658900718956442</v>
+        <v>7.7782916883133666</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>9.0104714340664032</v>
+        <v>9.1509313980157252</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>9.0104714340664032</v>
+        <v>9.1509313980157252</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>9.0104714340664032</v>
+        <v>9.1509313980157252</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>11.583608038707343</v>
+        <v>11.76417940829945</v>
       </c>
       <c r="K106" s="75"/>
     </row>
